--- a/tests/menusample.xlsx
+++ b/tests/menusample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>皮蛋瘦肉粥</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Ingredients</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -257,8 +260,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -318,11 +327,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1511,7 +1522,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -1620,8 +1631,8 @@
       <c r="B8" s="12">
         <v>2</v>
       </c>
-      <c r="C8" s="10">
-        <v>1</v>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>17</v>
